--- a/StructureDefinition-be-medicationdispense.xlsx
+++ b/StructureDefinition-be-medicationdispense.xlsx
@@ -926,7 +926,7 @@
     <t>MedicationDispense.subject</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://www.ehealth.fgov.be/standards/fhir/StructureDefinition/be-patient)
+    <t xml:space="preserve">Reference(https://www.hl7belgium.be/fhir/StructureDefinition/BePatient)
 </t>
   </si>
   <si>

--- a/StructureDefinition-be-medicationdispense.xlsx
+++ b/StructureDefinition-be-medicationdispense.xlsx
@@ -926,7 +926,7 @@
     <t>MedicationDispense.subject</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://www.hl7belgium.be/fhir/StructureDefinition/BePatient)
+    <t xml:space="preserve">Reference(https://www.ehealth.fgov.be/standards/fhir/StructureDefinition/be-patient)
 </t>
   </si>
   <si>
